--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H2">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I2">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J2">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.956431333333333</v>
+        <v>2.537011</v>
       </c>
       <c r="N2">
-        <v>8.869294</v>
+        <v>7.611032999999999</v>
       </c>
       <c r="O2">
-        <v>0.06161326453142597</v>
+        <v>0.05020703468023843</v>
       </c>
       <c r="P2">
-        <v>0.06161326453142598</v>
+        <v>0.05020703468023844</v>
       </c>
       <c r="Q2">
-        <v>6.694080922434889</v>
+        <v>10.309684581843</v>
       </c>
       <c r="R2">
-        <v>60.246728301914</v>
+        <v>92.78716123658698</v>
       </c>
       <c r="S2">
-        <v>0.02535371586548561</v>
+        <v>0.02542990544336608</v>
       </c>
       <c r="T2">
-        <v>0.02535371586548561</v>
+        <v>0.02542990544336609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H3">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I3">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J3">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>122.284225</v>
       </c>
       <c r="O3">
-        <v>0.8494847845776018</v>
+        <v>0.8066616352105005</v>
       </c>
       <c r="P3">
-        <v>0.8494847845776018</v>
+        <v>0.8066616352105006</v>
       </c>
       <c r="Q3">
-        <v>92.29376066316391</v>
+        <v>165.642664942475</v>
       </c>
       <c r="R3">
-        <v>830.6438459684751</v>
+        <v>1490.783984482275</v>
       </c>
       <c r="S3">
-        <v>0.3495610243026236</v>
+        <v>0.4085747991061533</v>
       </c>
       <c r="T3">
-        <v>0.3495610243026235</v>
+        <v>0.4085747991061535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H4">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I4">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J4">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.258285666666667</v>
+        <v>7.232567333333333</v>
       </c>
       <c r="N4">
-        <v>12.774857</v>
+        <v>21.697702</v>
       </c>
       <c r="O4">
-        <v>0.08874445290596285</v>
+        <v>0.143131330109261</v>
       </c>
       <c r="P4">
-        <v>0.08874445290596286</v>
+        <v>0.143131330109261</v>
       </c>
       <c r="Q4">
-        <v>9.641796351607445</v>
+        <v>29.391077895842</v>
       </c>
       <c r="R4">
-        <v>86.776167164467</v>
+        <v>264.519701062578</v>
       </c>
       <c r="S4">
-        <v>0.03651813713698181</v>
+        <v>0.07249613951198676</v>
       </c>
       <c r="T4">
-        <v>0.03651813713698181</v>
+        <v>0.07249613951198679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.264243666666667</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H5">
-        <v>6.792731</v>
+        <v>6.267686</v>
       </c>
       <c r="I5">
-        <v>0.4114976873616865</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J5">
-        <v>0.4114976873616864</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.007557333333333333</v>
+        <v>2.537011</v>
       </c>
       <c r="N5">
-        <v>0.022672</v>
+        <v>7.611032999999999</v>
       </c>
       <c r="O5">
-        <v>0.0001574979850094596</v>
+        <v>0.05020703468023843</v>
       </c>
       <c r="P5">
-        <v>0.0001574979850094596</v>
+        <v>0.05020703468023844</v>
       </c>
       <c r="Q5">
-        <v>0.01711164413688889</v>
+        <v>5.300396108848666</v>
       </c>
       <c r="R5">
-        <v>0.154004797232</v>
+        <v>47.703564979638</v>
       </c>
       <c r="S5">
-        <v>6.481005659551819E-05</v>
+        <v>0.01307397629776097</v>
       </c>
       <c r="T5">
-        <v>6.481005659551817E-05</v>
+        <v>0.01307397629776098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>6.267686</v>
       </c>
       <c r="I6">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J6">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.956431333333333</v>
+        <v>40.76140833333334</v>
       </c>
       <c r="N6">
-        <v>8.869294</v>
+        <v>122.284225</v>
       </c>
       <c r="O6">
-        <v>0.06161326453142597</v>
+        <v>0.8066616352105005</v>
       </c>
       <c r="P6">
-        <v>0.06161326453142598</v>
+        <v>0.8066616352105006</v>
       </c>
       <c r="Q6">
-        <v>6.176661092631555</v>
+        <v>85.15990278370558</v>
       </c>
       <c r="R6">
-        <v>55.589949833684</v>
+        <v>766.4391250533502</v>
       </c>
       <c r="S6">
-        <v>0.02339399719760463</v>
+        <v>0.2100557255815433</v>
       </c>
       <c r="T6">
-        <v>0.02339399719760463</v>
+        <v>0.2100557255815434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>6.267686</v>
       </c>
       <c r="I7">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J7">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.76140833333334</v>
+        <v>7.232567333333333</v>
       </c>
       <c r="N7">
-        <v>122.284225</v>
+        <v>21.697702</v>
       </c>
       <c r="O7">
-        <v>0.8494847845776018</v>
+        <v>0.143131330109261</v>
       </c>
       <c r="P7">
-        <v>0.8494847845776018</v>
+        <v>0.143131330109261</v>
       </c>
       <c r="Q7">
-        <v>85.15990278370558</v>
+        <v>15.11048700639689</v>
       </c>
       <c r="R7">
-        <v>766.4391250533502</v>
+        <v>135.994383057572</v>
       </c>
       <c r="S7">
-        <v>0.3225416608087695</v>
+        <v>0.03727158214448431</v>
       </c>
       <c r="T7">
-        <v>0.3225416608087694</v>
+        <v>0.03727158214448432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.089228666666667</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H8">
-        <v>6.267686</v>
+        <v>4.765069</v>
       </c>
       <c r="I8">
-        <v>0.3796909216792509</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J8">
-        <v>0.3796909216792508</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.258285666666667</v>
+        <v>2.537011</v>
       </c>
       <c r="N8">
-        <v>12.774857</v>
+        <v>7.611032999999999</v>
       </c>
       <c r="O8">
-        <v>0.08874445290596285</v>
+        <v>0.05020703468023843</v>
       </c>
       <c r="P8">
-        <v>0.08874445290596286</v>
+        <v>0.05020703468023844</v>
       </c>
       <c r="Q8">
-        <v>8.896532485655777</v>
+        <v>4.029677489586333</v>
       </c>
       <c r="R8">
-        <v>80.068792370902</v>
+        <v>36.26709740627699</v>
       </c>
       <c r="S8">
-        <v>0.03369546311778591</v>
+        <v>0.009939617135126994</v>
       </c>
       <c r="T8">
-        <v>0.03369546311778591</v>
+        <v>0.009939617135126996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.089228666666667</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H9">
-        <v>6.267686</v>
+        <v>4.765069</v>
       </c>
       <c r="I9">
-        <v>0.3796909216792509</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J9">
-        <v>0.3796909216792508</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.007557333333333333</v>
+        <v>40.76140833333334</v>
       </c>
       <c r="N9">
-        <v>0.022672</v>
+        <v>122.284225</v>
       </c>
       <c r="O9">
-        <v>0.0001574979850094596</v>
+        <v>0.8066616352105005</v>
       </c>
       <c r="P9">
-        <v>0.0001574979850094596</v>
+        <v>0.8066616352105006</v>
       </c>
       <c r="Q9">
-        <v>0.01578899744355556</v>
+        <v>64.74364108183612</v>
       </c>
       <c r="R9">
-        <v>0.142100976992</v>
+        <v>582.6927697365251</v>
       </c>
       <c r="S9">
-        <v>5.980055509086655E-05</v>
+        <v>0.1596969002979917</v>
       </c>
       <c r="T9">
-        <v>5.980055509086655E-05</v>
+        <v>0.1596969002979918</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H10">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I10">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J10">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.956431333333333</v>
+        <v>7.232567333333333</v>
       </c>
       <c r="N10">
-        <v>8.869294</v>
+        <v>21.697702</v>
       </c>
       <c r="O10">
-        <v>0.06161326453142597</v>
+        <v>0.143131330109261</v>
       </c>
       <c r="P10">
-        <v>0.06161326453142598</v>
+        <v>0.143131330109261</v>
       </c>
       <c r="Q10">
-        <v>2.833540366623555</v>
+        <v>11.48789413015978</v>
       </c>
       <c r="R10">
-        <v>25.501863299612</v>
+        <v>103.391047171438</v>
       </c>
       <c r="S10">
-        <v>0.0107319851942612</v>
+        <v>0.02833608139553189</v>
       </c>
       <c r="T10">
-        <v>0.0107319851942612</v>
+        <v>0.02833608139553189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9584326666666666</v>
+        <v>0.281814</v>
       </c>
       <c r="H11">
-        <v>2.875298</v>
+        <v>0.845442</v>
       </c>
       <c r="I11">
-        <v>0.1741830314604954</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J11">
-        <v>0.1741830314604954</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.76140833333334</v>
+        <v>2.537011</v>
       </c>
       <c r="N11">
-        <v>122.284225</v>
+        <v>7.611032999999999</v>
       </c>
       <c r="O11">
-        <v>0.8494847845776018</v>
+        <v>0.05020703468023843</v>
       </c>
       <c r="P11">
-        <v>0.8494847845776018</v>
+        <v>0.05020703468023844</v>
       </c>
       <c r="Q11">
-        <v>39.06706528600556</v>
+        <v>0.7149652179539999</v>
       </c>
       <c r="R11">
-        <v>351.60358757405</v>
+        <v>6.434686961585999</v>
       </c>
       <c r="S11">
-        <v>0.1479658349572926</v>
+        <v>0.001763535803984378</v>
       </c>
       <c r="T11">
-        <v>0.1479658349572925</v>
+        <v>0.001763535803984379</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9584326666666666</v>
+        <v>0.281814</v>
       </c>
       <c r="H12">
-        <v>2.875298</v>
+        <v>0.845442</v>
       </c>
       <c r="I12">
-        <v>0.1741830314604954</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J12">
-        <v>0.1741830314604954</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.258285666666667</v>
+        <v>40.76140833333334</v>
       </c>
       <c r="N12">
-        <v>12.774857</v>
+        <v>122.284225</v>
       </c>
       <c r="O12">
-        <v>0.08874445290596285</v>
+        <v>0.8066616352105005</v>
       </c>
       <c r="P12">
-        <v>0.08874445290596286</v>
+        <v>0.8066616352105006</v>
       </c>
       <c r="Q12">
-        <v>4.081280086931778</v>
+        <v>11.48713552805</v>
       </c>
       <c r="R12">
-        <v>36.731520782386</v>
+        <v>103.38421975245</v>
       </c>
       <c r="S12">
-        <v>0.01545777783246378</v>
+        <v>0.02833421022481201</v>
       </c>
       <c r="T12">
-        <v>0.01545777783246378</v>
+        <v>0.02833421022481202</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9584326666666666</v>
+        <v>0.281814</v>
       </c>
       <c r="H13">
-        <v>2.875298</v>
+        <v>0.845442</v>
       </c>
       <c r="I13">
-        <v>0.1741830314604954</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J13">
-        <v>0.1741830314604954</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.007557333333333333</v>
+        <v>7.232567333333333</v>
       </c>
       <c r="N13">
-        <v>0.022672</v>
+        <v>21.697702</v>
       </c>
       <c r="O13">
-        <v>0.0001574979850094596</v>
+        <v>0.143131330109261</v>
       </c>
       <c r="P13">
-        <v>0.0001574979850094596</v>
+        <v>0.143131330109261</v>
       </c>
       <c r="Q13">
-        <v>0.007243195139555555</v>
+        <v>2.038238730476</v>
       </c>
       <c r="R13">
-        <v>0.065188756256</v>
+        <v>18.344148574284</v>
       </c>
       <c r="S13">
-        <v>2.743347647786733E-05</v>
+        <v>0.00502752705725799</v>
       </c>
       <c r="T13">
-        <v>2.743347647786733E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.1905406666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.571622</v>
-      </c>
-      <c r="I14">
-        <v>0.03462835949856721</v>
-      </c>
-      <c r="J14">
-        <v>0.03462835949856721</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.956431333333333</v>
-      </c>
-      <c r="N14">
-        <v>8.869294</v>
-      </c>
-      <c r="O14">
-        <v>0.06161326453142597</v>
-      </c>
-      <c r="P14">
-        <v>0.06161326453142598</v>
-      </c>
-      <c r="Q14">
-        <v>0.5633203972075556</v>
-      </c>
-      <c r="R14">
-        <v>5.069883574867999</v>
-      </c>
-      <c r="S14">
-        <v>0.002133566274074539</v>
-      </c>
-      <c r="T14">
-        <v>0.002133566274074539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.1905406666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.571622</v>
-      </c>
-      <c r="I15">
-        <v>0.03462835949856721</v>
-      </c>
-      <c r="J15">
-        <v>0.03462835949856721</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>40.76140833333334</v>
-      </c>
-      <c r="N15">
-        <v>122.284225</v>
-      </c>
-      <c r="O15">
-        <v>0.8494847845776018</v>
-      </c>
-      <c r="P15">
-        <v>0.8494847845776018</v>
-      </c>
-      <c r="Q15">
-        <v>7.766705918105557</v>
-      </c>
-      <c r="R15">
-        <v>69.90035326295001</v>
-      </c>
-      <c r="S15">
-        <v>0.02941626450891612</v>
-      </c>
-      <c r="T15">
-        <v>0.02941626450891612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.1905406666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.571622</v>
-      </c>
-      <c r="I16">
-        <v>0.03462835949856721</v>
-      </c>
-      <c r="J16">
-        <v>0.03462835949856721</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>4.258285666666667</v>
-      </c>
-      <c r="N16">
-        <v>12.774857</v>
-      </c>
-      <c r="O16">
-        <v>0.08874445290596285</v>
-      </c>
-      <c r="P16">
-        <v>0.08874445290596286</v>
-      </c>
-      <c r="Q16">
-        <v>0.8113765897837778</v>
-      </c>
-      <c r="R16">
-        <v>7.302389308054</v>
-      </c>
-      <c r="S16">
-        <v>0.003073074818731349</v>
-      </c>
-      <c r="T16">
-        <v>0.003073074818731349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.1905406666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.571622</v>
-      </c>
-      <c r="I17">
-        <v>0.03462835949856721</v>
-      </c>
-      <c r="J17">
-        <v>0.03462835949856721</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.007557333333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.022672</v>
-      </c>
-      <c r="O17">
-        <v>0.0001574979850094596</v>
-      </c>
-      <c r="P17">
-        <v>0.0001574979850094596</v>
-      </c>
-      <c r="Q17">
-        <v>0.001439979331555555</v>
-      </c>
-      <c r="R17">
-        <v>0.012959813984</v>
-      </c>
-      <c r="S17">
-        <v>5.453896845207516E-06</v>
-      </c>
-      <c r="T17">
-        <v>5.453896845207515E-06</v>
+        <v>0.005027527057257991</v>
       </c>
     </row>
   </sheetData>
